--- a/Adriatic/Adriatic_v9.xlsx
+++ b/Adriatic/Adriatic_v9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="10710" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="10710" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="256">
   <si>
     <t>Number</t>
   </si>
@@ -507,33 +507,6 @@
     <t>Comp_16</t>
   </si>
   <si>
-    <t>Comp_17</t>
-  </si>
-  <si>
-    <t>Comp_18</t>
-  </si>
-  <si>
-    <t>Comp_19</t>
-  </si>
-  <si>
-    <t>Comp_20</t>
-  </si>
-  <si>
-    <t>Comp_21</t>
-  </si>
-  <si>
-    <t>Comp_22</t>
-  </si>
-  <si>
-    <t>Comp_23</t>
-  </si>
-  <si>
-    <t>Comp_24</t>
-  </si>
-  <si>
-    <t>Comp_25</t>
-  </si>
-  <si>
     <t>Estimate_sigma_catch</t>
   </si>
   <si>
@@ -541,9 +514,6 @@
   </si>
   <si>
     <t>proj_F</t>
-  </si>
-  <si>
-    <t>Catch_kg</t>
   </si>
   <si>
     <t>Age</t>
@@ -835,6 +805,12 @@
   </si>
   <si>
     <t>Sardine (Herring)</t>
+  </si>
+  <si>
+    <t>Fit_0no_1yes</t>
+  </si>
+  <si>
+    <t>Catch</t>
   </si>
 </sst>
 </file>
@@ -1915,13 +1891,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1994,35 +1972,8 @@
       <c r="X1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2096,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -2170,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2244,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2318,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -2392,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -2466,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -2540,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -2614,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -2655,7 +2606,7 @@
         <v>33093</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -2696,7 +2647,7 @@
         <v>15100.9</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -2737,7 +2688,7 @@
         <v>43433.2</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -2778,7 +2729,7 @@
         <v>34161.199999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2819,7 +2770,7 @@
         <v>25559.599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -2860,7 +2811,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4113,55 +4064,55 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5421,40 +5372,40 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6153,10 +6104,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -6165,1927 +6116,1927 @@
         <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>211</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>212</v>
-      </c>
-      <c r="F2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N2" t="s">
-        <v>221</v>
-      </c>
-      <c r="O2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="N3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O3" t="s">
         <v>212</v>
-      </c>
-      <c r="F3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M3" t="s">
-        <v>220</v>
-      </c>
-      <c r="N3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" t="s">
         <v>209</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M4" t="s">
         <v>210</v>
       </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="N4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" t="s">
         <v>209</v>
       </c>
-      <c r="B5" t="s">
+      <c r="M5" t="s">
         <v>210</v>
       </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="N5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" t="s">
         <v>212</v>
-      </c>
-      <c r="F5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M5" t="s">
-        <v>220</v>
-      </c>
-      <c r="N5" t="s">
-        <v>221</v>
-      </c>
-      <c r="O5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
         <v>209</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" t="s">
         <v>210</v>
       </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
+      <c r="M7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="N7" t="s">
+        <v>211</v>
+      </c>
+      <c r="O7" t="s">
         <v>212</v>
-      </c>
-      <c r="F7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M7" t="s">
-        <v>220</v>
-      </c>
-      <c r="N7" t="s">
-        <v>221</v>
-      </c>
-      <c r="O7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" t="s">
         <v>209</v>
       </c>
-      <c r="B8" t="s">
+      <c r="M8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="N8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O8" t="s">
         <v>212</v>
-      </c>
-      <c r="F8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" t="s">
-        <v>219</v>
-      </c>
-      <c r="M8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" t="s">
+      <c r="M9" t="s">
         <v>210</v>
       </c>
-      <c r="C9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="N9" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" t="s">
-        <v>215</v>
-      </c>
-      <c r="I9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" t="s">
-        <v>220</v>
-      </c>
-      <c r="N9" t="s">
-        <v>221</v>
-      </c>
-      <c r="O9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" t="s">
         <v>209</v>
       </c>
-      <c r="B10" t="s">
+      <c r="M10" t="s">
         <v>210</v>
       </c>
-      <c r="C10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="N10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" t="s">
         <v>212</v>
-      </c>
-      <c r="F10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J10" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M10" t="s">
-        <v>220</v>
-      </c>
-      <c r="N10" t="s">
-        <v>221</v>
-      </c>
-      <c r="O10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
+      <c r="M11" t="s">
         <v>210</v>
       </c>
-      <c r="C11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="N11" t="s">
+        <v>211</v>
+      </c>
+      <c r="O11" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" t="s">
-        <v>218</v>
-      </c>
-      <c r="L11" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" t="s">
-        <v>220</v>
-      </c>
-      <c r="N11" t="s">
-        <v>221</v>
-      </c>
-      <c r="O11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" t="s">
         <v>209</v>
       </c>
-      <c r="B12" t="s">
+      <c r="M12" t="s">
         <v>210</v>
       </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="N12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" t="s">
         <v>212</v>
-      </c>
-      <c r="F12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" t="s">
-        <v>218</v>
-      </c>
-      <c r="L12" t="s">
-        <v>219</v>
-      </c>
-      <c r="M12" t="s">
-        <v>220</v>
-      </c>
-      <c r="N12" t="s">
-        <v>221</v>
-      </c>
-      <c r="O12" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" t="s">
         <v>209</v>
       </c>
-      <c r="B13" t="s">
+      <c r="M13" t="s">
         <v>210</v>
       </c>
-      <c r="C13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="N13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O13" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I13" t="s">
-        <v>216</v>
-      </c>
-      <c r="J13" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" t="s">
-        <v>219</v>
-      </c>
-      <c r="M13" t="s">
-        <v>220</v>
-      </c>
-      <c r="N13" t="s">
-        <v>221</v>
-      </c>
-      <c r="O13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" t="s">
         <v>209</v>
       </c>
-      <c r="B14" t="s">
+      <c r="M14" t="s">
         <v>210</v>
       </c>
-      <c r="C14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="N14" t="s">
+        <v>211</v>
+      </c>
+      <c r="O14" t="s">
         <v>212</v>
-      </c>
-      <c r="F14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" t="s">
-        <v>215</v>
-      </c>
-      <c r="I14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" t="s">
-        <v>217</v>
-      </c>
-      <c r="K14" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M14" t="s">
-        <v>220</v>
-      </c>
-      <c r="N14" t="s">
-        <v>221</v>
-      </c>
-      <c r="O14" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" t="s">
         <v>209</v>
       </c>
-      <c r="B15" t="s">
+      <c r="M15" t="s">
         <v>210</v>
       </c>
-      <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="N15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" t="s">
         <v>212</v>
-      </c>
-      <c r="F15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" t="s">
-        <v>216</v>
-      </c>
-      <c r="J15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K15" t="s">
-        <v>218</v>
-      </c>
-      <c r="L15" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" t="s">
-        <v>221</v>
-      </c>
-      <c r="O15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" t="s">
         <v>209</v>
       </c>
-      <c r="B16" t="s">
+      <c r="M16" t="s">
         <v>210</v>
       </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="N16" t="s">
+        <v>211</v>
+      </c>
+      <c r="O16" t="s">
         <v>212</v>
-      </c>
-      <c r="F16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J16" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" t="s">
-        <v>219</v>
-      </c>
-      <c r="M16" t="s">
-        <v>220</v>
-      </c>
-      <c r="N16" t="s">
-        <v>221</v>
-      </c>
-      <c r="O16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" t="s">
         <v>209</v>
       </c>
-      <c r="B17" t="s">
+      <c r="M17" t="s">
         <v>210</v>
       </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="N17" t="s">
+        <v>211</v>
+      </c>
+      <c r="O17" t="s">
         <v>212</v>
-      </c>
-      <c r="F17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" t="s">
-        <v>215</v>
-      </c>
-      <c r="I17" t="s">
-        <v>216</v>
-      </c>
-      <c r="J17" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" t="s">
-        <v>219</v>
-      </c>
-      <c r="M17" t="s">
-        <v>220</v>
-      </c>
-      <c r="N17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" t="s">
         <v>209</v>
       </c>
-      <c r="B18" t="s">
+      <c r="M18" t="s">
         <v>210</v>
       </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="N18" t="s">
+        <v>211</v>
+      </c>
+      <c r="O18" t="s">
         <v>212</v>
-      </c>
-      <c r="F18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" t="s">
-        <v>217</v>
-      </c>
-      <c r="K18" t="s">
-        <v>218</v>
-      </c>
-      <c r="L18" t="s">
-        <v>219</v>
-      </c>
-      <c r="M18" t="s">
-        <v>220</v>
-      </c>
-      <c r="N18" t="s">
-        <v>221</v>
-      </c>
-      <c r="O18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" t="s">
         <v>209</v>
       </c>
-      <c r="B19" t="s">
+      <c r="M19" t="s">
         <v>210</v>
       </c>
-      <c r="C19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="N19" t="s">
+        <v>211</v>
+      </c>
+      <c r="O19" t="s">
         <v>212</v>
-      </c>
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J19" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" t="s">
-        <v>220</v>
-      </c>
-      <c r="N19" t="s">
-        <v>221</v>
-      </c>
-      <c r="O19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I20" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I22" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I24" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H28" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I28" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" t="s">
         <v>232</v>
       </c>
-      <c r="E30" t="s">
-        <v>242</v>
-      </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" t="s">
         <v>233</v>
       </c>
-      <c r="E31" t="s">
-        <v>242</v>
-      </c>
-      <c r="F31" t="s">
-        <v>243</v>
-      </c>
       <c r="G31" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H31" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
         <v>234</v>
       </c>
-      <c r="E32" t="s">
-        <v>242</v>
-      </c>
-      <c r="F32" t="s">
-        <v>243</v>
-      </c>
-      <c r="G32" t="s">
-        <v>244</v>
-      </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" t="s">
         <v>235</v>
       </c>
-      <c r="E33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" t="s">
-        <v>244</v>
-      </c>
-      <c r="H33" t="s">
-        <v>245</v>
-      </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" t="s">
         <v>236</v>
-      </c>
-      <c r="E34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I34" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G37" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I37" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I38" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I40" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G42" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I43" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I44" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I45" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I46" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I48" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G49" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I49" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I50" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I52" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I53" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I54" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" t="s">
         <v>239</v>
       </c>
-      <c r="E55" t="s">
-        <v>249</v>
-      </c>
       <c r="F55" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8103,67 +8054,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8250,67 +8201,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8391,7 +8342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -8399,67 +8350,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8548,67 +8499,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8754,7 +8705,7 @@
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8874,10 +8825,10 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D10">
         <v>23</v>
@@ -8888,10 +8839,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D11">
         <v>0.1</v>
@@ -8902,10 +8853,10 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D12">
         <v>0.01</v>
@@ -9093,7 +9044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9110,7 +9063,7 @@
         <v>1998</v>
       </c>
       <c r="B2">
-        <v>3.2745823999999999</v>
+        <v>14.08259531</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9118,7 +9071,7 @@
         <v>1999</v>
       </c>
       <c r="B3">
-        <v>0.82841830000000005</v>
+        <v>13.981627769999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9126,7 +9079,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>2.1578056999999999</v>
+        <v>14.26216142</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9134,7 +9087,7 @@
         <v>2001</v>
       </c>
       <c r="B5">
-        <v>2.5750459999999999</v>
+        <v>14.61570568</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9142,7 +9095,7 @@
         <v>2002</v>
       </c>
       <c r="B6">
-        <v>3.2475805000000002</v>
+        <v>14.068322970000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9150,7 +9103,7 @@
         <v>2003</v>
       </c>
       <c r="B7">
-        <v>3.8122425</v>
+        <v>13.71724145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9158,7 +9111,7 @@
         <v>2004</v>
       </c>
       <c r="B8">
-        <v>3.3866551</v>
+        <v>13.737393559999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9166,7 +9119,7 @@
         <v>2005</v>
       </c>
       <c r="B9">
-        <v>3.4729554999999999</v>
+        <v>13.6905366</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9174,7 +9127,7 @@
         <v>2006</v>
       </c>
       <c r="B10">
-        <v>1.874485</v>
+        <v>13.52616138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9182,7 +9135,7 @@
         <v>2007</v>
       </c>
       <c r="B11">
-        <v>1.7868061</v>
+        <v>14.25383014</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9190,7 +9143,7 @@
         <v>2008</v>
       </c>
       <c r="B12">
-        <v>1.2903135999999999</v>
+        <v>13.88317239</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9198,7 +9151,7 @@
         <v>2009</v>
       </c>
       <c r="B13">
-        <v>1.383928</v>
+        <v>13.856122689999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9206,7 +9159,7 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>1.5312284</v>
+        <v>13.78263679</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9214,7 +9167,7 @@
         <v>2011</v>
       </c>
       <c r="B15">
-        <v>2.4670969999999999</v>
+        <v>14.0795251</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9222,7 +9175,7 @@
         <v>2012</v>
       </c>
       <c r="B16">
-        <v>1.0078514000000001</v>
+        <v>14.06549047</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9230,7 +9183,7 @@
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>1.8729431000000001</v>
+        <v>14.42851917</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9238,7 +9191,7 @@
         <v>2014</v>
       </c>
       <c r="B18">
-        <v>3.2236408999999999</v>
+        <v>15.085703049999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9246,7 +9199,7 @@
         <v>2015</v>
       </c>
       <c r="B19">
-        <v>3.3629994000000001</v>
+        <v>14.53858338</v>
       </c>
     </row>
   </sheetData>
@@ -9272,37 +9225,37 @@
         <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10888,19 +10841,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -18417,19 +18370,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -25944,19 +25897,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -31482,19 +31435,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -37012,20 +36965,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -37036,34 +36989,37 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -37076,26 +37032,29 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -37108,26 +37067,29 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -37140,26 +37102,29 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -37170,14 +37135,14 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5">
         <v>2</v>
       </c>
@@ -37188,13 +37153,16 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -37205,27 +37173,30 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
@@ -39316,15 +39287,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG77"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -39397,35 +39368,8 @@
       <c r="X1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -39499,7 +39443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -39573,7 +39517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -39647,7 +39591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -39721,7 +39665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -39795,7 +39739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -39869,7 +39813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -39943,7 +39887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -40017,7 +39961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -40091,7 +40035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -40165,7 +40109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -40239,7 +40183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -40313,7 +40257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -40387,7 +40331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -40461,7 +40405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -44264,15 +44208,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -44283,31 +44227,34 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -44321,11 +44268,11 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -44333,13 +44280,16 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -44353,25 +44303,28 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -44385,21 +44338,24 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
@@ -44412,7 +44368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -44436,7 +44394,7 @@
         <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>135</v>
